--- a/project02/Minimum Viable Product Plan.xlsx
+++ b/project02/Minimum Viable Product Plan.xlsx
@@ -99,25 +99,25 @@
     <t>Web Report of Data (View only no Export)</t>
   </si>
   <si>
-    <t>Send Manual Amber Alerts by Region</t>
+    <t>Automated Amber Alerts</t>
   </si>
   <si>
-    <t>Automated Amber Alerts</t>
+    <t>Automated Integration for Importing</t>
   </si>
   <si>
     <t>Manual Importing</t>
   </si>
   <si>
-    <t>Basic Data Searching Capability</t>
-  </si>
-  <si>
-    <t>Automated Integration for Importing</t>
+    <t>User Based Preferences- Save Search &amp; Reports</t>
   </si>
   <si>
     <t>Basic Dashboard with heatmap display</t>
   </si>
   <si>
-    <t>User Based Preferences- Save Search &amp; Reports</t>
+    <t>Basic Data Searching Capability</t>
+  </si>
+  <si>
+    <t>Send Manual Amber Alerts by Region</t>
   </si>
   <si>
     <r>
@@ -999,6 +999,33 @@
     <t>Sprint 1</t>
   </si>
   <si>
+    <t>As a System Administrator I can give access to the system  so that users can access,import, share data..</t>
+  </si>
+  <si>
+    <t>As a Medical Examiner I can add a person's gender  so that deaths can be tracked by gender  .</t>
+  </si>
+  <si>
+    <t>As a Medical Examiner I can report the number of deaths caused by the virus so that government can take safety measures.</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>As a Healthcare Company I can add the number of test kits produced so that the CDC can determine where test kits should be sent.</t>
+  </si>
+  <si>
+    <t>As a CDC Official I can see a report of the # of test kits that health care companies have created so that that I can send funding.</t>
+  </si>
+  <si>
+    <t>As a Medical Examiner I can add person's location so that deaths can be tracked by location.</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>As a Test Center I can update/change the number of test kits recieved so that data is accurate.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -1025,33 +1052,6 @@
       </rPr>
       <t xml:space="preserve"> so that so that I can analyze the outbreak .</t>
     </r>
-  </si>
-  <si>
-    <t>As a Medical Examiner I can add a person's gender  so that deaths can be tracked by gender  .</t>
-  </si>
-  <si>
-    <t>As a Medical Examiner I can report the number of deaths caused by the virus so that government can take safety measures.</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>As a System Administrator I can give access to the system  so that users can access,import, share data..</t>
-  </si>
-  <si>
-    <t>As a Healthcare Company I can add the number of test kits produced so that the CDC can determine where test kits should be sent.</t>
-  </si>
-  <si>
-    <t>As a CDC Official I can see a report of the # of test kits that health care companies have created so that that I can send funding.</t>
-  </si>
-  <si>
-    <t>As a Medical Examiner I can add person's location so that deaths can be tracked by location.</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>As a Test Center I can update/change the number of test kits recieved  so that data is accurate.</t>
   </si>
   <si>
     <t>As a Patient I can change my test results  so that the system data is accurate.</t>
@@ -1474,7 +1474,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1671,10 +1671,16 @@
     <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -2038,7 +2044,7 @@
       <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="14"/>
@@ -2050,11 +2056,9 @@
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="14"/>
     </row>
@@ -2063,28 +2067,30 @@
         <v>12</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" ht="39.75" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="14"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="14"/>
@@ -2109,7 +2115,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="15"/>
@@ -2118,7 +2124,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="15"/>
@@ -2127,7 +2133,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="15"/>
@@ -2145,7 +2151,7 @@
     </row>
     <row r="17" ht="49.5" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="15"/>
@@ -2172,7 +2178,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="15"/>
@@ -34845,215 +34851,215 @@
       <c r="B3" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="69">
         <v>2.0</v>
       </c>
     </row>
     <row r="4" ht="31.5" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="71">
         <v>3.0</v>
       </c>
     </row>
     <row r="5" ht="39.0" customHeight="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="71">
         <v>3.0</v>
       </c>
     </row>
     <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="69"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="67" t="s">
         <v>173</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="71">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="71">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="70"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="71">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="70"/>
+      <c r="B9" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="71">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="71">
         <v>2.0</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="68">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="71" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="68">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="68">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="68">
-        <v>5.0</v>
-      </c>
-    </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="71">
         <v>2.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="71">
         <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="74" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="67" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="71">
         <v>5.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="73" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="71">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="73" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="71">
         <v>1.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="71">
         <v>1.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="68">
+      <c r="D17" s="71">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="69"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="67" t="s">
         <v>189</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="71">
         <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="68">
+      <c r="D19" s="71">
         <v>2.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D20" s="68">
+      <c r="D20" s="71">
         <v>2.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="71">
         <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="68">
+      <c r="D22" s="71">
         <v>3.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="76" t="s">
         <v>195</v>
       </c>
       <c r="B23" s="67" t="s">
@@ -35062,49 +35068,49 @@
       <c r="C23" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="68">
+      <c r="D23" s="71">
         <v>3.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="68">
+      <c r="D24" s="71">
         <v>5.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="69"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="67" t="s">
         <v>199</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="68">
+      <c r="D25" s="71">
         <v>2.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="71">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="68">
+      <c r="D27" s="71">
         <v>5.0</v>
       </c>
     </row>
@@ -36085,13 +36091,13 @@
   <mergeCells count="11">
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B3:B5"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A23:A27"/>
   </mergeCells>
